--- a/arg/args_3.xlsx
+++ b/arg/args_3.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0453534541387281</v>
+        <v>0.04558231101506155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9546465458612718</v>
+        <v>0.9544176889849385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5444283490987625</v>
+        <v>0.7893550651862347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4555716509012375</v>
+        <v>0.2106449348137652</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1834493583988318</v>
+        <v>-0.4875800893138815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8944275192539765</v>
+        <v>1.251897441634889</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.04791486865784558</v>
+        <v>0.7575543588660423</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2579069247803823</v>
+        <v>-0.8056005040469104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05420524695634256</v>
+        <v>0.127890440609373</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03176554691013016</v>
+        <v>-0.6228396265957147</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03683968343733682</v>
+        <v>0.03559480416424711</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01113433476579276</v>
+        <v>0.02465085456966761</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01266792794944365</v>
+        <v>-0.01419707056525276</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02019897857113173</v>
+        <v>0.02951210061980302</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01266128203652667</v>
+        <v>0.01689156262838633</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0004267432970480129</v>
+        <v>-0.0006479118983454967</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.006717162860946917</v>
+        <v>1.36585840970413e-06</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.005482439912097643</v>
+        <v>0.000199089084950856</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0001535303755475587</v>
+        <v>4.620510161070379e-06</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01193183875256669</v>
+        <v>0.0002719681432970744</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.006418121496722658</v>
+        <v>0.0003894292602795836</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.002149554456345632</v>
+        <v>2.273009413143741e-08</v>
       </c>
     </row>
   </sheetData>
